--- a/A-开发相关文档素材/3.测试用例/日程查询 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/日程查询 - 测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="日程查询" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>用例接口</t>
   </si>
@@ -84,6 +84,9 @@
     <t>异常</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>不传userId参数项，检查结果是否正确</t>
   </si>
   <si>
@@ -167,6 +170,12 @@
     <t>正常</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>---- findSchedule 语法错误</t>
+  </si>
+  <si>
     <t>只传用户ID + 日程ID</t>
   </si>
   <si>
@@ -222,12 +231,6 @@
   </si>
   <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>×</t>
@@ -265,12 +268,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +283,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -317,7 +313,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,8 +417,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,121 +450,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,7 +489,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,181 +651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,42 +775,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -856,6 +811,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -874,7 +853,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -884,158 +874,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,16 +1038,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1066,40 +1056,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1549,7 +1533,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,6 +1542,7 @@
     <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="6" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="8" max="8" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1575,7 +1560,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="20"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7"/>
@@ -1590,456 +1575,494 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="20"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="24" spans="1:11">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" customFormat="1" ht="24" spans="1:11">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" customFormat="1" ht="24" spans="1:11">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" ht="36" spans="1:11">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" ht="36" spans="1:11">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" ht="36" spans="1:11">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" ht="24" spans="1:11">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" ht="24" spans="1:11">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" ht="24" spans="1:11">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" ht="24" spans="1:11">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" ht="36" spans="1:11">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="3"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" ht="36" spans="1:11">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" ht="36" spans="1:11">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" ht="24" spans="1:11">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="3"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" ht="24" spans="1:11">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>16</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" ht="24" spans="1:11">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="3"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" ht="24" spans="1:11">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>62</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2057,7 +2080,7 @@
     <mergeCell ref="C4:C6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>测试结果</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
@@ -2076,14 +2099,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -2091,10 +2114,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2102,15 +2125,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2140,31 +2163,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/A-开发相关文档素材/3.测试用例/日程查询 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/日程查询 - 测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="日程查询" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>用例接口</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>修改内容</t>
+  </si>
+  <si>
+    <t>毛彦鑫</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ScheduleRepository.java</t>
   </si>
 </sst>
 </file>
@@ -268,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -313,7 +322,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,30 +435,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,51 +444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,36 +458,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -489,49 +498,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,133 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +781,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -796,41 +820,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,15 +846,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -869,6 +854,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -877,147 +886,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,6 +1047,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1097,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1532,106 +1547,106 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="7" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
     <col min="8" max="8" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="18"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="24" spans="1:11">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="3"/>
@@ -1640,21 +1655,21 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" customFormat="1" ht="24" spans="1:11">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="3"/>
@@ -1663,21 +1678,21 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" customFormat="1" ht="24" spans="1:11">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="3"/>
@@ -1686,25 +1701,25 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" ht="36" spans="1:11">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="3"/>
@@ -1713,23 +1728,23 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" ht="36" spans="1:11">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="3"/>
@@ -1738,23 +1753,23 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" ht="36" spans="1:11">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3"/>
@@ -1763,25 +1778,25 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" ht="24" spans="1:11">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="3"/>
@@ -1790,23 +1805,23 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" ht="24" spans="1:11">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="3"/>
@@ -1815,25 +1830,25 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="3"/>
@@ -1842,25 +1857,25 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" ht="24" spans="1:11">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1871,23 +1886,23 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" ht="24" spans="1:11">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="3"/>
@@ -1896,23 +1911,23 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" ht="36" spans="1:11">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="3"/>
@@ -1921,23 +1936,23 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" ht="36" spans="1:11">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>13</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="3"/>
@@ -1946,23 +1961,23 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" ht="36" spans="1:11">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="3"/>
@@ -1971,23 +1986,23 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" ht="24" spans="1:11">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="3"/>
@@ -1996,23 +2011,23 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" ht="24" spans="1:11">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -2023,23 +2038,23 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" ht="24" spans="1:11">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="3"/>
@@ -2048,20 +2063,20 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" ht="24" spans="1:11">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="3"/>
@@ -2105,34 +2120,34 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2148,8 +2163,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2158,7 +2173,7 @@
     <col min="2" max="2" width="48.5" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -2191,26 +2206,50 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43360</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3">
+        <v>16</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43360</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>

--- a/A-开发相关文档素材/3.测试用例/日程查询 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/日程查询 - 测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="日程查询" sheetId="1" r:id="rId1"/>
@@ -170,97 +170,97 @@
     <t>正常</t>
   </si>
   <si>
+    <t>只传用户ID + 日程ID</t>
+  </si>
+  <si>
+    <t>userId和scheduleId正常传参，其他入参为空，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>只传用户ID + 日程主题</t>
+  </si>
+  <si>
+    <t>userId和scheduleName正常传参，其他入参为空，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>只传用户ID + 开始时间</t>
+  </si>
+  <si>
+    <t>userId和scheduleStarttime正常传参，其他入参为空，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>只传用户ID + 截止时间</t>
+  </si>
+  <si>
+    <t>userId和scheduleDeadline正常传参，其他入参为空，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>只传用户ID + 标签ID</t>
+  </si>
+  <si>
+    <t>userId和labelId正常传参，其他入参为空，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>只传用户ID + 参与人名称</t>
+  </si>
+  <si>
+    <t>userId和groupName正常传参，其他入参为空，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>只传用户ID + 参与人ID</t>
+  </si>
+  <si>
+    <t>userId和groupId正常传参，其他入参为空，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>数据异常         数据库无连接</t>
+  </si>
+  <si>
+    <t>查询数据库连接失败</t>
+  </si>
+  <si>
+    <t>关闭数据库查询</t>
+  </si>
+  <si>
+    <t>系统异常</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>测试case序号</t>
+  </si>
+  <si>
+    <t>发现问题</t>
+  </si>
+  <si>
+    <t>问题截图</t>
+  </si>
+  <si>
+    <t>发现人</t>
+  </si>
+  <si>
+    <t>发现日期</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>修改日期</t>
+  </si>
+  <si>
+    <t>修改结果</t>
+  </si>
+  <si>
+    <t>修改内容</t>
+  </si>
+  <si>
     <t>---- findSchedule 语法错误</t>
-  </si>
-  <si>
-    <t>只传用户ID + 日程ID</t>
-  </si>
-  <si>
-    <t>userId和scheduleId正常传参，其他入参为空，查看结果是否正确</t>
-  </si>
-  <si>
-    <t>只传用户ID + 日程主题</t>
-  </si>
-  <si>
-    <t>userId和scheduleName正常传参，其他入参为空，查看结果是否正确</t>
-  </si>
-  <si>
-    <t>只传用户ID + 开始时间</t>
-  </si>
-  <si>
-    <t>userId和scheduleStarttime正常传参，其他入参为空，查看结果是否正确</t>
-  </si>
-  <si>
-    <t>只传用户ID + 截止时间</t>
-  </si>
-  <si>
-    <t>userId和scheduleDeadline正常传参，其他入参为空，查看结果是否正确</t>
-  </si>
-  <si>
-    <t>只传用户ID + 标签ID</t>
-  </si>
-  <si>
-    <t>userId和labelId正常传参，其他入参为空，查看结果是否正确</t>
-  </si>
-  <si>
-    <t>只传用户ID + 参与人名称</t>
-  </si>
-  <si>
-    <t>userId和groupName正常传参，其他入参为空，查看结果是否正确</t>
-  </si>
-  <si>
-    <t>只传用户ID + 参与人ID</t>
-  </si>
-  <si>
-    <t>userId和groupId正常传参，其他入参为空，查看结果是否正确</t>
-  </si>
-  <si>
-    <t>数据异常         数据库无连接</t>
-  </si>
-  <si>
-    <t>查询数据库连接失败</t>
-  </si>
-  <si>
-    <t>关闭数据库查询</t>
-  </si>
-  <si>
-    <t>系统异常</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>测试case序号</t>
-  </si>
-  <si>
-    <t>发现问题</t>
-  </si>
-  <si>
-    <t>问题截图</t>
-  </si>
-  <si>
-    <t>发现人</t>
-  </si>
-  <si>
-    <t>发现日期</t>
-  </si>
-  <si>
-    <t>责任人</t>
-  </si>
-  <si>
-    <t>修改日期</t>
-  </si>
-  <si>
-    <t>修改结果</t>
-  </si>
-  <si>
-    <t>修改内容</t>
   </si>
   <si>
     <t>毛彦鑫</t>
@@ -278,9 +278,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -322,7 +322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,45 +352,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,16 +381,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,6 +413,37 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,21 +464,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -498,13 +498,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,19 +588,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,37 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,43 +660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,55 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,8 +823,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,30 +878,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -886,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,133 +898,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1547,8 +1547,8 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1876,11 +1876,9 @@
         <v>45</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1891,10 +1889,10 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>41</v>
@@ -1916,10 +1914,10 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>41</v>
@@ -1941,10 +1939,10 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>41</v>
@@ -1966,10 +1964,10 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>41</v>
@@ -1991,10 +1989,10 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>41</v>
@@ -2016,10 +2014,10 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>41</v>
@@ -2028,11 +2026,9 @@
         <v>45</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2043,10 +2039,10 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>41</v>
@@ -2067,17 +2063,17 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2121,7 +2117,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -2140,15 +2136,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2159,7 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I3"/>
     </sheetView>
   </sheetViews>
@@ -2178,31 +2174,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2210,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2233,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
